--- a/asp_explore/draco_mv/compare_shows.xlsx
+++ b/asp_explore/draco_mv/compare_shows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trubens/verde_repos/verde/asp_explore/draco_mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47E31B-BFC3-2D40-BAB6-87AD8492E6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F6CB1-50E8-4C46-98D7-2BC27802BC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{27009EBD-C4C0-CF49-8310-3208DC459533}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" activeTab="1" xr2:uid="{27009EBD-C4C0-CF49-8310-3208DC459533}"/>
   </bookViews>
   <sheets>
     <sheet name="float verde" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'draco verde_expl'!$A$2:$AM$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="145">
   <si>
     <t xml:space="preserve">        "view(v_v)",</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>10 (cost=16)</t>
+  </si>
+  <si>
+    <t>Because binning is not continuous so is_c_c is not true.</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,6 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,59 +1287,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2A6CD0-C626-774F-AD56-8D2A0865A945}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11887200" y="3162300"/>
-          <a:ext cx="8724900" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1690,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:D31" si="0">IF(A2&lt;&gt;C2,"diff","")</f>
+        <f t="shared" ref="B2:B31" si="0">IF(A2&lt;&gt;C2,"diff","")</f>
         <v/>
       </c>
       <c r="C2" t="s">
@@ -2665,10 +2616,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E889E24-64E2-E24E-85CD-6343837C2EA3}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:AM103"/>
+  <dimension ref="A2:AS103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -2754,18 +2705,18 @@
         <v>42</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>IF(C3&lt;&gt;"",IF(COUNTIF(G$3:G$37,C3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="D3:D35" si="0">IF(C3&lt;&gt;"",IF(COUNTIF(G$3:G$37,C3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF(G3&lt;&gt;"",IF(COUNTIF(C$3:C$37,G3)=0,"NIP",""),"")</f>
+        <f t="shared" ref="F3:F33" si="1">IF(G3&lt;&gt;"",IF(COUNTIF(C$3:C$37,G3)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF(G3&lt;&gt;"",IF(COUNTIF(K$3:K$37,G3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="H3:H35" si="2">IF(G3&lt;&gt;"",IF(COUNTIF(K$3:K$37,G3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="J3" s="1" t="str">
@@ -2776,7 +2727,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f>IF(K3&lt;&gt;"",IF(COUNTIF(O$3:O$37,K3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="L3:L35" si="3">IF(K3&lt;&gt;"",IF(COUNTIF(O$3:O$37,K3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="N3" s="1" t="str">
@@ -2787,7 +2738,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f>IF(O3&lt;&gt;"",IF(COUNTIF(S$3:S$37,O3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="P3:P35" si="4">IF(O3&lt;&gt;"",IF(COUNTIF(S$3:S$37,O3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="R3" s="1" t="str">
@@ -2798,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f>IF(S3&lt;&gt;"",IF(COUNTIF(W$3:W$37,S3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="T3:T35" si="5">IF(S3&lt;&gt;"",IF(COUNTIF(W$3:W$37,S3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="V3" s="1" t="str">
@@ -2809,7 +2760,7 @@
         <v>42</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f>IF(W3&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="X3:X35" si="6">IF(W3&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="Z3" s="1" t="str">
@@ -2820,7 +2771,7 @@
         <v>42</v>
       </c>
       <c r="AB3" s="1" t="str">
-        <f>IF(AA3&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="AB3:AB35" si="7">IF(AA3&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="AD3" s="1" t="str">
@@ -2831,7 +2782,7 @@
         <v>42</v>
       </c>
       <c r="AF3" s="1" t="str">
-        <f>IF(AE3&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="AF3:AF35" si="8">IF(AE3&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="AH3" s="1" t="str">
@@ -2842,7 +2793,7 @@
         <v>42</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f>IF(AI3&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI3)=0,"NIN",""),"")</f>
+        <f t="shared" ref="AJ3:AJ35" si="9">IF(AI3&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI3)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="AL3" s="1" t="str">
@@ -2858,99 +2809,99 @@
         <v>43</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>IF(C4&lt;&gt;"",IF(COUNTIF(G$3:G$37,C4)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF(G4&lt;&gt;"",IF(COUNTIF(C$3:C$37,G4)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF(G4&lt;&gt;"",IF(COUNTIF(K$3:K$37,G4)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" ref="J4:J33" si="0">IF(K4&lt;&gt;"",IF(COUNTIF(G$3:G$37,K4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="J4:J33" si="10">IF(K4&lt;&gt;"",IF(COUNTIF(G$3:G$37,K4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="K4" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>IF(K4&lt;&gt;"",IF(COUNTIF(O$3:O$37,K4)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:N33" si="1">IF(O4&lt;&gt;"",IF(COUNTIF(K$3:K$37,O4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="N4:N33" si="11">IF(O4&lt;&gt;"",IF(COUNTIF(K$3:K$37,O4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4" s="1" t="str">
-        <f>IF(O4&lt;&gt;"",IF(COUNTIF(S$3:S$37,O4)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R4" s="1" t="str">
-        <f t="shared" ref="R4:R33" si="2">IF(S4&lt;&gt;"",IF(COUNTIF(O$3:O$37,S4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="R4:R33" si="12">IF(S4&lt;&gt;"",IF(COUNTIF(O$3:O$37,S4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="S4" t="s">
         <v>43</v>
       </c>
       <c r="T4" s="1" t="str">
-        <f>IF(S4&lt;&gt;"",IF(COUNTIF(W$3:W$37,S4)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V4" s="1" t="str">
-        <f t="shared" ref="V4:V33" si="3">IF(W4&lt;&gt;"",IF(COUNTIF(S$3:S$37,W4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="V4:V33" si="13">IF(W4&lt;&gt;"",IF(COUNTIF(S$3:S$37,W4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="W4" t="s">
         <v>43</v>
       </c>
       <c r="X4" s="1" t="str">
-        <f>IF(W4&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W4)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z4" s="1" t="str">
-        <f t="shared" ref="Z4:Z33" si="4">IF(AA4&lt;&gt;"",IF(COUNTIF(W$3:W$37,AA4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="Z4:Z33" si="14">IF(AA4&lt;&gt;"",IF(COUNTIF(W$3:W$37,AA4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AA4" t="s">
         <v>43</v>
       </c>
       <c r="AB4" s="1" t="str">
-        <f>IF(AA4&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA4)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD4" s="1" t="str">
-        <f t="shared" ref="AD4:AD33" si="5">IF(AE4&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,AE4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="AD4:AD33" si="15">IF(AE4&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,AE4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AE4" t="s">
         <v>43</v>
       </c>
       <c r="AF4" s="1" t="str">
-        <f>IF(AE4&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE4)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH4" s="1" t="str">
-        <f t="shared" ref="AH4:AH33" si="6">IF(AI4&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AI4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="AH4:AH33" si="16">IF(AI4&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AI4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AI4" t="s">
         <v>43</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f>IF(AI4&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI4)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL4" s="1" t="str">
-        <f t="shared" ref="AL4:AL33" si="7">IF(AM4&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AM4)=0,"NIP",""),"")</f>
+        <f t="shared" ref="AL4:AL33" si="17">IF(AM4&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AM4)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AM4" t="s">
@@ -2962,99 +2913,99 @@
         <v>44</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>IF(C5&lt;&gt;"",IF(COUNTIF(G$3:G$37,C5)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF(G5&lt;&gt;"",IF(COUNTIF(C$3:C$37,G5)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF(G5&lt;&gt;"",IF(COUNTIF(K$3:K$37,G5)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K5" t="s">
         <v>44</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>IF(K5&lt;&gt;"",IF(COUNTIF(O$3:O$37,K5)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f>IF(O5&lt;&gt;"",IF(COUNTIF(S$3:S$37,O5)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S5" t="s">
         <v>44</v>
       </c>
       <c r="T5" s="1" t="str">
-        <f>IF(S5&lt;&gt;"",IF(COUNTIF(W$3:W$37,S5)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f>IF(W5&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W5)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA5" t="s">
         <v>44</v>
       </c>
       <c r="AB5" s="1" t="str">
-        <f>IF(AA5&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA5)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE5" t="s">
         <v>44</v>
       </c>
       <c r="AF5" s="1" t="str">
-        <f>IF(AE5&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE5)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH5" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI5" t="s">
         <v>44</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f>IF(AI5&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI5)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL5" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM5" t="s">
@@ -3066,99 +3017,99 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IF(C6&lt;&gt;"",IF(COUNTIF(G$3:G$37,C6)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF(G6&lt;&gt;"",IF(COUNTIF(C$3:C$37,G6)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF(G6&lt;&gt;"",IF(COUNTIF(K$3:K$37,G6)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K6" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f>IF(K6&lt;&gt;"",IF(COUNTIF(O$3:O$37,K6)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O6" t="s">
         <v>45</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f>IF(O6&lt;&gt;"",IF(COUNTIF(S$3:S$37,O6)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S6" t="s">
         <v>45</v>
       </c>
       <c r="T6" s="1" t="str">
-        <f>IF(S6&lt;&gt;"",IF(COUNTIF(W$3:W$37,S6)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W6" t="s">
         <v>45</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f>IF(W6&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W6)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA6" t="s">
         <v>45</v>
       </c>
       <c r="AB6" s="1" t="str">
-        <f>IF(AA6&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA6)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE6" t="s">
         <v>45</v>
       </c>
       <c r="AF6" s="1" t="str">
-        <f>IF(AE6&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE6)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH6" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI6" t="s">
         <v>45</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f>IF(AI6&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI6)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL6" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM6" t="s">
@@ -3170,99 +3121,99 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF(C7&lt;&gt;"",IF(COUNTIF(G$3:G$37,C7)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF(G7&lt;&gt;"",IF(COUNTIF(C$3:C$37,G7)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF(G7&lt;&gt;"",IF(COUNTIF(K$3:K$37,G7)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K7" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f>IF(K7&lt;&gt;"",IF(COUNTIF(O$3:O$37,K7)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O7" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f>IF(O7&lt;&gt;"",IF(COUNTIF(S$3:S$37,O7)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S7" t="s">
         <v>46</v>
       </c>
       <c r="T7" s="1" t="str">
-        <f>IF(S7&lt;&gt;"",IF(COUNTIF(W$3:W$37,S7)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W7" t="s">
         <v>46</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f>IF(W7&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W7)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA7" t="s">
         <v>46</v>
       </c>
       <c r="AB7" s="1" t="str">
-        <f>IF(AA7&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA7)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE7" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="1" t="str">
-        <f>IF(AE7&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE7)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH7" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI7" t="s">
         <v>46</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f>IF(AI7&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI7)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL7" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM7" t="s">
@@ -3274,99 +3225,99 @@
         <v>47</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>IF(C8&lt;&gt;"",IF(COUNTIF(G$3:G$37,C8)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF(G8&lt;&gt;"",IF(COUNTIF(C$3:C$37,G8)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF(G8&lt;&gt;"",IF(COUNTIF(K$3:K$37,G8)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K8" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f>IF(K8&lt;&gt;"",IF(COUNTIF(O$3:O$37,K8)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O8" t="s">
         <v>47</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f>IF(O8&lt;&gt;"",IF(COUNTIF(S$3:S$37,O8)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S8" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="1" t="str">
-        <f>IF(S8&lt;&gt;"",IF(COUNTIF(W$3:W$37,S8)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W8" t="s">
         <v>47</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f>IF(W8&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W8)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA8" t="s">
         <v>47</v>
       </c>
       <c r="AB8" s="1" t="str">
-        <f>IF(AA8&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA8)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD8" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE8" t="s">
         <v>47</v>
       </c>
       <c r="AF8" s="1" t="str">
-        <f>IF(AE8&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE8)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH8" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI8" t="s">
         <v>47</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f>IF(AI8&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI8)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL8" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM8" t="s">
@@ -3378,99 +3329,99 @@
         <v>49</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IF(C9&lt;&gt;"",IF(COUNTIF(G$3:G$37,C9)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v>NIN</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF(G9&lt;&gt;"",IF(COUNTIF(C$3:C$37,G9)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v>NIP</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF(G9&lt;&gt;"",IF(COUNTIF(K$3:K$37,G9)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v>NIN</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K9" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f>IF(K9&lt;&gt;"",IF(COUNTIF(O$3:O$37,K9)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O9" t="s">
         <v>49</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>IF(O9&lt;&gt;"",IF(COUNTIF(S$3:S$37,O9)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S9" t="s">
         <v>49</v>
       </c>
       <c r="T9" s="1" t="str">
-        <f>IF(S9&lt;&gt;"",IF(COUNTIF(W$3:W$37,S9)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W9" t="s">
         <v>49</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f>IF(W9&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W9)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v>NIN</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>NIP</v>
       </c>
       <c r="AA9" t="s">
         <v>48</v>
       </c>
       <c r="AB9" s="1" t="str">
-        <f>IF(AA9&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA9)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE9" t="s">
         <v>49</v>
       </c>
       <c r="AF9" s="1" t="str">
-        <f>IF(AE9&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE9)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH9" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI9" t="s">
         <v>49</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f>IF(AI9&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI9)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v>NIN</v>
       </c>
       <c r="AL9" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>NIP</v>
       </c>
       <c r="AM9" t="s">
@@ -3482,99 +3433,99 @@
         <v>51</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IF(C10&lt;&gt;"",IF(COUNTIF(G$3:G$37,C10)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v>NIN</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF(G10&lt;&gt;"",IF(COUNTIF(C$3:C$37,G10)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v>NIP</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF(G10&lt;&gt;"",IF(COUNTIF(K$3:K$37,G10)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v>NIN</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K10" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f>IF(K10&lt;&gt;"",IF(COUNTIF(O$3:O$37,K10)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O10" t="s">
         <v>51</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>IF(O10&lt;&gt;"",IF(COUNTIF(S$3:S$37,O10)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S10" t="s">
         <v>51</v>
       </c>
       <c r="T10" s="1" t="str">
-        <f>IF(S10&lt;&gt;"",IF(COUNTIF(W$3:W$37,S10)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W10" t="s">
         <v>51</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f>IF(W10&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W10)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v>NIN</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>NIP</v>
       </c>
       <c r="AA10" t="s">
         <v>50</v>
       </c>
       <c r="AB10" s="1" t="str">
-        <f>IF(AA10&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA10)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE10" t="s">
         <v>51</v>
       </c>
       <c r="AF10" s="1" t="str">
-        <f>IF(AE10&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE10)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH10" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI10" t="s">
         <v>51</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f>IF(AI10&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI10)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v>NIN</v>
       </c>
       <c r="AL10" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>NIP</v>
       </c>
       <c r="AM10" t="s">
@@ -3586,99 +3537,99 @@
         <v>52</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IF(C11&lt;&gt;"",IF(COUNTIF(G$3:G$37,C11)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF(G11&lt;&gt;"",IF(COUNTIF(C$3:C$37,G11)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF(G11&lt;&gt;"",IF(COUNTIF(K$3:K$37,G11)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K11" t="s">
         <v>52</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f>IF(K11&lt;&gt;"",IF(COUNTIF(O$3:O$37,K11)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f>IF(O11&lt;&gt;"",IF(COUNTIF(S$3:S$37,O11)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S11" t="s">
         <v>52</v>
       </c>
       <c r="T11" s="1" t="str">
-        <f>IF(S11&lt;&gt;"",IF(COUNTIF(W$3:W$37,S11)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W11" t="s">
         <v>52</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f>IF(W11&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W11)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA11" t="s">
         <v>52</v>
       </c>
       <c r="AB11" s="1" t="str">
-        <f>IF(AA11&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA11)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE11" t="s">
         <v>52</v>
       </c>
       <c r="AF11" s="1" t="str">
-        <f>IF(AE11&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE11)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI11" t="s">
         <v>52</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f>IF(AI11&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI11)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL11" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM11" t="s">
@@ -3690,99 +3641,99 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF(C12&lt;&gt;"",IF(COUNTIF(G$3:G$37,C12)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF(G12&lt;&gt;"",IF(COUNTIF(C$3:C$37,G12)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF(G12&lt;&gt;"",IF(COUNTIF(K$3:K$37,G12)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f>IF(K12&lt;&gt;"",IF(COUNTIF(O$3:O$37,K12)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O12" t="s">
         <v>53</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f>IF(O12&lt;&gt;"",IF(COUNTIF(S$3:S$37,O12)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S12" t="s">
         <v>53</v>
       </c>
       <c r="T12" s="1" t="str">
-        <f>IF(S12&lt;&gt;"",IF(COUNTIF(W$3:W$37,S12)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W12" t="s">
         <v>53</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f>IF(W12&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W12)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA12" t="s">
         <v>53</v>
       </c>
       <c r="AB12" s="1" t="str">
-        <f>IF(AA12&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA12)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE12" t="s">
         <v>53</v>
       </c>
       <c r="AF12" s="1" t="str">
-        <f>IF(AE12&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE12)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI12" t="s">
         <v>53</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f>IF(AI12&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI12)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL12" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM12" t="s">
@@ -3794,99 +3745,99 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IF(C13&lt;&gt;"",IF(COUNTIF(G$3:G$37,C13)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(G13&lt;&gt;"",IF(COUNTIF(C$3:C$37,G13)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G13" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF(G13&lt;&gt;"",IF(COUNTIF(K$3:K$37,G13)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v>NIN</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K13" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f>IF(K13&lt;&gt;"",IF(COUNTIF(O$3:O$37,K13)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v>NIN</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>NIP</v>
       </c>
       <c r="O13" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f>IF(O13&lt;&gt;"",IF(COUNTIF(S$3:S$37,O13)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S13" t="s">
         <v>57</v>
       </c>
       <c r="T13" s="1" t="str">
-        <f>IF(S13&lt;&gt;"",IF(COUNTIF(W$3:W$37,S13)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W13" t="s">
         <v>55</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f>IF(W13&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W13)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA13" t="s">
         <v>55</v>
       </c>
       <c r="AB13" s="1" t="str">
-        <f>IF(AA13&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA13)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE13" t="s">
         <v>54</v>
       </c>
       <c r="AF13" s="1" t="str">
-        <f>IF(AE13&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE13)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v>NIN</v>
       </c>
       <c r="AH13" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI13" t="s">
         <v>58</v>
       </c>
       <c r="AJ13" s="1" t="str">
-        <f>IF(AI13&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI13)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL13" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>NIP</v>
       </c>
       <c r="AM13" t="s">
@@ -3898,99 +3849,99 @@
         <v>55</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IF(C14&lt;&gt;"",IF(COUNTIF(G$3:G$37,C14)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(G14&lt;&gt;"",IF(COUNTIF(C$3:C$37,G14)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G14" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF(G14&lt;&gt;"",IF(COUNTIF(K$3:K$37,G14)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K14" t="s">
         <v>58</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f>IF(K14&lt;&gt;"",IF(COUNTIF(O$3:O$37,K14)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O14" t="s">
         <v>58</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f>IF(O14&lt;&gt;"",IF(COUNTIF(S$3:S$37,O14)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S14" t="s">
         <v>55</v>
       </c>
       <c r="T14" s="1" t="str">
-        <f>IF(S14&lt;&gt;"",IF(COUNTIF(W$3:W$37,S14)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W14" t="s">
         <v>58</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f>IF(W14&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W14)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA14" t="s">
         <v>58</v>
       </c>
       <c r="AB14" s="1" t="str">
-        <f>IF(AA14&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA14)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE14" t="s">
         <v>58</v>
       </c>
       <c r="AF14" s="1" t="str">
-        <f>IF(AE14&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE14)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH14" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI14" t="s">
         <v>59</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f>IF(AI14&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI14)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL14" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM14" t="s">
@@ -4002,99 +3953,99 @@
         <v>58</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IF(C15&lt;&gt;"",IF(COUNTIF(G$3:G$37,C15)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(G15&lt;&gt;"",IF(COUNTIF(C$3:C$37,G15)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF(G15&lt;&gt;"",IF(COUNTIF(K$3:K$37,G15)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K15" t="s">
         <v>59</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f>IF(K15&lt;&gt;"",IF(COUNTIF(O$3:O$37,K15)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O15" t="s">
         <v>59</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f>IF(O15&lt;&gt;"",IF(COUNTIF(S$3:S$37,O15)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S15" t="s">
         <v>58</v>
       </c>
       <c r="T15" s="1" t="str">
-        <f>IF(S15&lt;&gt;"",IF(COUNTIF(W$3:W$37,S15)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W15" t="s">
         <v>59</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f>IF(W15&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W15)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA15" t="s">
         <v>59</v>
       </c>
       <c r="AB15" s="1" t="str">
-        <f>IF(AA15&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA15)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE15" t="s">
         <v>59</v>
       </c>
       <c r="AF15" s="1" t="str">
-        <f>IF(AE15&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE15)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI15" t="s">
         <v>60</v>
       </c>
       <c r="AJ15" s="1" t="str">
-        <f>IF(AI15&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI15)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL15" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM15" t="s">
@@ -4106,99 +4057,99 @@
         <v>59</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IF(C16&lt;&gt;"",IF(COUNTIF(G$3:G$37,C16)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(G16&lt;&gt;"",IF(COUNTIF(C$3:C$37,G16)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF(G16&lt;&gt;"",IF(COUNTIF(K$3:K$37,G16)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K16" t="s">
         <v>60</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f>IF(K16&lt;&gt;"",IF(COUNTIF(O$3:O$37,K16)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O16" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f>IF(O16&lt;&gt;"",IF(COUNTIF(S$3:S$37,O16)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S16" t="s">
         <v>59</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f>IF(S16&lt;&gt;"",IF(COUNTIF(W$3:W$37,S16)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W16" t="s">
         <v>60</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f>IF(W16&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W16)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA16" t="s">
         <v>60</v>
       </c>
       <c r="AB16" s="1" t="str">
-        <f>IF(AA16&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA16)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD16" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE16" t="s">
         <v>60</v>
       </c>
       <c r="AF16" s="1" t="str">
-        <f>IF(AE16&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE16)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI16" t="s">
         <v>61</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f>IF(AI16&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI16)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL16" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM16" t="s">
@@ -4210,99 +4161,99 @@
         <v>60</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IF(C17&lt;&gt;"",IF(COUNTIF(G$3:G$37,C17)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(G17&lt;&gt;"",IF(COUNTIF(C$3:C$37,G17)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF(G17&lt;&gt;"",IF(COUNTIF(K$3:K$37,G17)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K17" t="s">
         <v>61</v>
       </c>
       <c r="L17" s="1" t="str">
-        <f>IF(K17&lt;&gt;"",IF(COUNTIF(O$3:O$37,K17)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O17" t="s">
         <v>61</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f>IF(O17&lt;&gt;"",IF(COUNTIF(S$3:S$37,O17)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S17" t="s">
         <v>62</v>
       </c>
       <c r="T17" s="1" t="str">
-        <f>IF(S17&lt;&gt;"",IF(COUNTIF(W$3:W$37,S17)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W17" t="s">
         <v>61</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f>IF(W17&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W17)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA17" t="s">
         <v>61</v>
       </c>
       <c r="AB17" s="1" t="str">
-        <f>IF(AA17&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA17)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE17" t="s">
         <v>61</v>
       </c>
       <c r="AF17" s="1" t="str">
-        <f>IF(AE17&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE17)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH17" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI17" t="s">
         <v>63</v>
       </c>
       <c r="AJ17" s="1" t="str">
-        <f>IF(AI17&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI17)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL17" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM17" t="s">
@@ -4314,99 +4265,99 @@
         <v>63</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IF(C18&lt;&gt;"",IF(COUNTIF(G$3:G$37,C18)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(G18&lt;&gt;"",IF(COUNTIF(C$3:C$37,G18)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G18" t="s">
         <v>63</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(G18&lt;&gt;"",IF(COUNTIF(K$3:K$37,G18)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K18" t="s">
         <v>63</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f>IF(K18&lt;&gt;"",IF(COUNTIF(O$3:O$37,K18)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O18" t="s">
         <v>63</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f>IF(O18&lt;&gt;"",IF(COUNTIF(S$3:S$37,O18)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S18" t="s">
         <v>64</v>
       </c>
       <c r="T18" s="1" t="str">
-        <f>IF(S18&lt;&gt;"",IF(COUNTIF(W$3:W$37,S18)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W18" t="s">
         <v>63</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f>IF(W18&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W18)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA18" t="s">
         <v>63</v>
       </c>
       <c r="AB18" s="1" t="str">
-        <f>IF(AA18&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA18)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE18" t="s">
         <v>63</v>
       </c>
       <c r="AF18" s="1" t="str">
-        <f>IF(AE18&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE18)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH18" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI18" t="s">
         <v>66</v>
       </c>
       <c r="AJ18" s="1" t="str">
-        <f>IF(AI18&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI18)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL18" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM18" t="s">
@@ -4418,99 +4369,99 @@
         <v>66</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IF(C19&lt;&gt;"",IF(COUNTIF(G$3:G$37,C19)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(G19&lt;&gt;"",IF(COUNTIF(C$3:C$37,G19)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v>NIP</v>
       </c>
       <c r="G19" t="s">
         <v>65</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(G19&lt;&gt;"",IF(COUNTIF(K$3:K$37,G19)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v>NIN</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K19" t="s">
         <v>66</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f>IF(K19&lt;&gt;"",IF(COUNTIF(O$3:O$37,K19)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O19" t="s">
         <v>66</v>
       </c>
       <c r="P19" s="1" t="str">
-        <f>IF(O19&lt;&gt;"",IF(COUNTIF(S$3:S$37,O19)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S19" t="s">
         <v>67</v>
       </c>
       <c r="T19" s="1" t="str">
-        <f>IF(S19&lt;&gt;"",IF(COUNTIF(W$3:W$37,S19)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W19" t="s">
         <v>66</v>
       </c>
       <c r="X19" s="1" t="str">
-        <f>IF(W19&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W19)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>NIP</v>
       </c>
       <c r="AA19" t="s">
         <v>65</v>
       </c>
       <c r="AB19" s="1" t="str">
-        <f>IF(AA19&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA19)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE19" t="s">
         <v>66</v>
       </c>
       <c r="AF19" s="1" t="str">
-        <f>IF(AE19&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE19)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI19" t="s">
         <v>68</v>
       </c>
       <c r="AJ19" s="1" t="str">
-        <f>IF(AI19&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI19)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL19" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>NIP</v>
       </c>
       <c r="AM19" t="s">
@@ -4522,99 +4473,99 @@
         <v>68</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>IF(C20&lt;&gt;"",IF(COUNTIF(G$3:G$37,C20)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(G20&lt;&gt;"",IF(COUNTIF(C$3:C$37,G20)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G20" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(G20&lt;&gt;"",IF(COUNTIF(K$3:K$37,G20)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K20" t="s">
         <v>68</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f>IF(K20&lt;&gt;"",IF(COUNTIF(O$3:O$37,K20)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O20" t="s">
         <v>68</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f>IF(O20&lt;&gt;"",IF(COUNTIF(S$3:S$37,O20)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S20" t="s">
         <v>66</v>
       </c>
       <c r="T20" s="1" t="str">
-        <f>IF(S20&lt;&gt;"",IF(COUNTIF(W$3:W$37,S20)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W20" t="s">
         <v>68</v>
       </c>
       <c r="X20" s="1" t="str">
-        <f>IF(W20&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W20)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA20" t="s">
         <v>66</v>
       </c>
       <c r="AB20" s="1" t="str">
-        <f>IF(AA20&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA20)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE20" t="s">
         <v>68</v>
       </c>
       <c r="AF20" s="1" t="str">
-        <f>IF(AE20&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE20)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>NIP</v>
       </c>
       <c r="AI20" t="s">
         <v>71</v>
       </c>
       <c r="AJ20" s="1" t="str">
-        <f>IF(AI20&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI20)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v>NIN</v>
       </c>
       <c r="AL20" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM20" t="s">
@@ -4626,99 +4577,99 @@
         <v>70</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>IF(C21&lt;&gt;"",IF(COUNTIF(G$3:G$37,C21)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(G21&lt;&gt;"",IF(COUNTIF(C$3:C$37,G21)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G21" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF(G21&lt;&gt;"",IF(COUNTIF(K$3:K$37,G21)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f>IF(K21&lt;&gt;"",IF(COUNTIF(O$3:O$37,K21)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v>NIN</v>
       </c>
       <c r="N21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>NIP</v>
       </c>
       <c r="O21" t="s">
         <v>72</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f>IF(O21&lt;&gt;"",IF(COUNTIF(S$3:S$37,O21)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S21" t="s">
         <v>68</v>
       </c>
       <c r="T21" s="1" t="str">
-        <f>IF(S21&lt;&gt;"",IF(COUNTIF(W$3:W$37,S21)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W21" t="s">
         <v>74</v>
       </c>
       <c r="X21" s="1" t="str">
-        <f>IF(W21&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W21)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v>NIN</v>
       </c>
       <c r="Z21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA21" t="s">
         <v>68</v>
       </c>
       <c r="AB21" s="1" t="str">
-        <f>IF(AA21&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA21)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE21" t="s">
         <v>93</v>
       </c>
       <c r="AF21" s="1" t="str">
-        <f>IF(AE21&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE21)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v>NIN</v>
       </c>
       <c r="AH21" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI21" t="s">
         <v>72</v>
       </c>
       <c r="AJ21" s="1" t="str">
-        <f>IF(AI21&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI21)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL21" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM21" t="s">
@@ -4730,99 +4681,99 @@
         <v>73</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>IF(C22&lt;&gt;"",IF(COUNTIF(G$3:G$37,C22)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(G22&lt;&gt;"",IF(COUNTIF(C$3:C$37,G22)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G22" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF(G22&lt;&gt;"",IF(COUNTIF(K$3:K$37,G22)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K22" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f>IF(K22&lt;&gt;"",IF(COUNTIF(O$3:O$37,K22)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O22" t="s">
         <v>70</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f>IF(O22&lt;&gt;"",IF(COUNTIF(S$3:S$37,O22)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S22" t="s">
         <v>70</v>
       </c>
       <c r="T22" s="1" t="str">
-        <f>IF(S22&lt;&gt;"",IF(COUNTIF(W$3:W$37,S22)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W22" t="s">
         <v>76</v>
       </c>
       <c r="X22" s="1" t="str">
-        <f>IF(W22&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W22)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v>NIN</v>
       </c>
       <c r="Z22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA22" t="s">
         <v>71</v>
       </c>
       <c r="AB22" s="1" t="str">
-        <f>IF(AA22&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA22)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE22" t="s">
         <v>94</v>
       </c>
       <c r="AF22" s="1" t="str">
-        <f>IF(AE22&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE22)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v>NIN</v>
       </c>
       <c r="AH22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI22" t="s">
         <v>70</v>
       </c>
       <c r="AJ22" s="1" t="str">
-        <f>IF(AI22&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI22)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL22" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM22" t="s">
@@ -4834,99 +4785,99 @@
         <v>75</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>IF(C23&lt;&gt;"",IF(COUNTIF(G$3:G$37,C23)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v>NIN</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(G23&lt;&gt;"",IF(COUNTIF(C$3:C$37,G23)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G23" t="s">
         <v>73</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF(G23&lt;&gt;"",IF(COUNTIF(K$3:K$37,G23)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K23" t="s">
         <v>73</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f>IF(K23&lt;&gt;"",IF(COUNTIF(O$3:O$37,K23)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O23" t="s">
         <v>73</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f>IF(O23&lt;&gt;"",IF(COUNTIF(S$3:S$37,O23)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S23" t="s">
         <v>73</v>
       </c>
       <c r="T23" s="1" t="str">
-        <f>IF(S23&lt;&gt;"",IF(COUNTIF(W$3:W$37,S23)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W23" t="s">
         <v>71</v>
       </c>
       <c r="X23" s="1" t="str">
-        <f>IF(W23&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W23)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA23" t="s">
         <v>70</v>
       </c>
       <c r="AB23" s="1" t="str">
-        <f>IF(AA23&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA23)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE23" t="s">
         <v>72</v>
       </c>
       <c r="AF23" s="1" t="str">
-        <f>IF(AE23&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE23)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI23" t="s">
         <v>73</v>
       </c>
       <c r="AJ23" s="1" t="str">
-        <f>IF(AI23&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI23)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL23" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM23" t="s">
@@ -4938,99 +4889,99 @@
         <v>78</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>IF(C24&lt;&gt;"",IF(COUNTIF(G$3:G$37,C24)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v>NIN</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(G24&lt;&gt;"",IF(COUNTIF(C$3:C$37,G24)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v>NIP</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF(G24&lt;&gt;"",IF(COUNTIF(K$3:K$37,G24)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v>NIN</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K24" t="s">
         <v>75</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f>IF(K24&lt;&gt;"",IF(COUNTIF(O$3:O$37,K24)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O24" t="s">
         <v>75</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f>IF(O24&lt;&gt;"",IF(COUNTIF(S$3:S$37,O24)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S24" t="s">
         <v>78</v>
       </c>
       <c r="T24" s="1" t="str">
-        <f>IF(S24&lt;&gt;"",IF(COUNTIF(W$3:W$37,S24)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W24" t="s">
         <v>70</v>
       </c>
       <c r="X24" s="1" t="str">
-        <f>IF(W24&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W24)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA24" t="s">
         <v>73</v>
       </c>
       <c r="AB24" s="1" t="str">
-        <f>IF(AA24&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA24)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE24" t="s">
         <v>70</v>
       </c>
       <c r="AF24" s="1" t="str">
-        <f>IF(AE24&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE24)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH24" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI24" t="s">
         <v>75</v>
       </c>
       <c r="AJ24" s="1" t="str">
-        <f>IF(AI24&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI24)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v>NIN</v>
       </c>
       <c r="AL24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM24" t="s">
@@ -5042,99 +4993,99 @@
         <v>80</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>IF(C25&lt;&gt;"",IF(COUNTIF(G$3:G$37,C25)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(G25&lt;&gt;"",IF(COUNTIF(C$3:C$37,G25)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v>NIP</v>
       </c>
       <c r="G25" t="s">
         <v>79</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF(G25&lt;&gt;"",IF(COUNTIF(K$3:K$37,G25)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v>NIN</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K25" t="s">
         <v>78</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f>IF(K25&lt;&gt;"",IF(COUNTIF(O$3:O$37,K25)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O25" t="s">
         <v>78</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f>IF(O25&lt;&gt;"",IF(COUNTIF(S$3:S$37,O25)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S25" t="s">
         <v>81</v>
       </c>
       <c r="T25" s="1" t="str">
-        <f>IF(S25&lt;&gt;"",IF(COUNTIF(W$3:W$37,S25)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W25" t="s">
         <v>73</v>
       </c>
       <c r="X25" s="1" t="str">
-        <f>IF(W25&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W25)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>NIP</v>
       </c>
       <c r="AA25" t="s">
         <v>77</v>
       </c>
       <c r="AB25" s="1" t="str">
-        <f>IF(AA25&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA25)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE25" t="s">
         <v>73</v>
       </c>
       <c r="AF25" s="1" t="str">
-        <f>IF(AE25&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE25)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI25" t="s">
         <v>78</v>
       </c>
       <c r="AJ25" s="1" t="str">
-        <f>IF(AI25&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI25)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v>NIN</v>
       </c>
       <c r="AL25" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>NIP</v>
       </c>
       <c r="AM25" t="s">
@@ -5146,99 +5097,99 @@
         <v>82</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>IF(C26&lt;&gt;"",IF(COUNTIF(G$3:G$37,C26)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(G26&lt;&gt;"",IF(COUNTIF(C$3:C$37,G26)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G26" t="s">
         <v>80</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(G26&lt;&gt;"",IF(COUNTIF(K$3:K$37,G26)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f>IF(K26&lt;&gt;"",IF(COUNTIF(O$3:O$37,K26)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O26" t="s">
         <v>83</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f>IF(O26&lt;&gt;"",IF(COUNTIF(S$3:S$37,O26)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S26" t="s">
         <v>85</v>
       </c>
       <c r="T26" s="1" t="str">
-        <f>IF(S26&lt;&gt;"",IF(COUNTIF(W$3:W$37,S26)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W26" t="s">
         <v>75</v>
       </c>
       <c r="X26" s="1" t="str">
-        <f>IF(W26&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W26)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v>NIN</v>
       </c>
       <c r="Z26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>NIP</v>
       </c>
       <c r="AA26" t="s">
         <v>79</v>
       </c>
       <c r="AB26" s="1" t="str">
-        <f>IF(AA26&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA26)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE26" t="s">
         <v>75</v>
       </c>
       <c r="AF26" s="1" t="str">
-        <f>IF(AE26&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE26)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI26" t="s">
         <v>83</v>
       </c>
       <c r="AJ26" s="1" t="str">
-        <f>IF(AI26&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI26)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>NIP</v>
       </c>
       <c r="AM26" t="s">
@@ -5250,99 +5201,99 @@
         <v>86</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>IF(C27&lt;&gt;"",IF(COUNTIF(G$3:G$37,C27)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(G27&lt;&gt;"",IF(COUNTIF(C$3:C$37,G27)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v>NIP</v>
       </c>
       <c r="G27" t="s">
         <v>95</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF(G27&lt;&gt;"",IF(COUNTIF(K$3:K$37,G27)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v>NIN</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K27" t="s">
         <v>80</v>
       </c>
       <c r="L27" s="1" t="str">
-        <f>IF(K27&lt;&gt;"",IF(COUNTIF(O$3:O$37,K27)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O27" t="s">
         <v>80</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f>IF(O27&lt;&gt;"",IF(COUNTIF(S$3:S$37,O27)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S27" t="s">
         <v>87</v>
       </c>
       <c r="T27" s="1" t="str">
-        <f>IF(S27&lt;&gt;"",IF(COUNTIF(W$3:W$37,S27)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W27" t="s">
         <v>78</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f>IF(W27&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W27)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v>NIN</v>
       </c>
       <c r="Z27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA27" t="s">
         <v>83</v>
       </c>
       <c r="AB27" s="1" t="str">
-        <f>IF(AA27&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA27)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE27" t="s">
         <v>78</v>
       </c>
       <c r="AF27" s="1" t="str">
-        <f>IF(AE27&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE27)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH27" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI27" t="s">
         <v>80</v>
       </c>
       <c r="AJ27" s="1" t="str">
-        <f>IF(AI27&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI27)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL27" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM27" t="s">
@@ -5354,99 +5305,99 @@
         <v>88</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>IF(C28&lt;&gt;"",IF(COUNTIF(G$3:G$37,C28)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(G28&lt;&gt;"",IF(COUNTIF(C$3:C$37,G28)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G28" t="s">
         <v>82</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF(G28&lt;&gt;"",IF(COUNTIF(K$3:K$37,G28)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K28" t="s">
         <v>82</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f>IF(K28&lt;&gt;"",IF(COUNTIF(O$3:O$37,K28)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O28" t="s">
         <v>82</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f>IF(O28&lt;&gt;"",IF(COUNTIF(S$3:S$37,O28)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S28" t="s">
         <v>82</v>
       </c>
       <c r="T28" s="1" t="str">
-        <f>IF(S28&lt;&gt;"",IF(COUNTIF(W$3:W$37,S28)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V28" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W28" t="s">
         <v>83</v>
       </c>
       <c r="X28" s="1" t="str">
-        <f>IF(W28&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W28)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA28" t="s">
         <v>80</v>
       </c>
       <c r="AB28" s="1" t="str">
-        <f>IF(AA28&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA28)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE28" t="s">
         <v>83</v>
       </c>
       <c r="AF28" s="1" t="str">
-        <f>IF(AE28&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE28)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH28" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI28" t="s">
         <v>82</v>
       </c>
       <c r="AJ28" s="1" t="str">
-        <f>IF(AI28&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI28)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL28" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM28" t="s">
@@ -5458,99 +5409,99 @@
         <v>90</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>IF(C29&lt;&gt;"",IF(COUNTIF(G$3:G$37,C29)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(G29&lt;&gt;"",IF(COUNTIF(C$3:C$37,G29)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" t="s">
         <v>86</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF(G29&lt;&gt;"",IF(COUNTIF(K$3:K$37,G29)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>NIP</v>
       </c>
       <c r="K29" t="s">
         <v>89</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f>IF(K29&lt;&gt;"",IF(COUNTIF(O$3:O$37,K29)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O29" t="s">
         <v>89</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f>IF(O29&lt;&gt;"",IF(COUNTIF(S$3:S$37,O29)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S29" t="s">
         <v>86</v>
       </c>
       <c r="T29" s="1" t="str">
-        <f>IF(S29&lt;&gt;"",IF(COUNTIF(W$3:W$37,S29)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V29" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W29" t="s">
         <v>80</v>
       </c>
       <c r="X29" s="1" t="str">
-        <f>IF(W29&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W29)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>NIP</v>
       </c>
       <c r="AA29" t="s">
         <v>95</v>
       </c>
       <c r="AB29" s="1" t="str">
-        <f>IF(AA29&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA29)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v>NIN</v>
       </c>
       <c r="AD29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE29" t="s">
         <v>80</v>
       </c>
       <c r="AF29" s="1" t="str">
-        <f>IF(AE29&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE29)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH29" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI29" t="s">
         <v>89</v>
       </c>
       <c r="AJ29" s="1" t="str">
-        <f>IF(AI29&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI29)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL29" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>NIP</v>
       </c>
       <c r="AM29" t="s">
@@ -5559,99 +5510,99 @@
     </row>
     <row r="30" spans="3:39" hidden="1" outlineLevel="1">
       <c r="D30" s="1" t="str">
-        <f>IF(C30&lt;&gt;"",IF(COUNTIF(G$3:G$37,C30)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(G30&lt;&gt;"",IF(COUNTIF(C$3:C$37,G30)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF(G30&lt;&gt;"",IF(COUNTIF(K$3:K$37,G30)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K30" t="s">
         <v>86</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f>IF(K30&lt;&gt;"",IF(COUNTIF(O$3:O$37,K30)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O30" t="s">
         <v>86</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f>IF(O30&lt;&gt;"",IF(COUNTIF(S$3:S$37,O30)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S30" t="s">
         <v>90</v>
       </c>
       <c r="T30" s="1" t="str">
-        <f>IF(S30&lt;&gt;"",IF(COUNTIF(W$3:W$37,S30)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V30" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W30" t="s">
         <v>82</v>
       </c>
       <c r="X30" s="1" t="str">
-        <f>IF(W30&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W30)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA30" t="s">
         <v>82</v>
       </c>
       <c r="AB30" s="1" t="str">
-        <f>IF(AA30&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA30)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE30" t="s">
         <v>82</v>
       </c>
       <c r="AF30" s="1" t="str">
-        <f>IF(AE30&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE30)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI30" t="s">
         <v>86</v>
       </c>
       <c r="AJ30" s="1" t="str">
-        <f>IF(AI30&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI30)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL30" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM30" t="s">
@@ -5660,99 +5611,99 @@
     </row>
     <row r="31" spans="3:39" hidden="1" outlineLevel="1">
       <c r="D31" s="1" t="str">
-        <f>IF(C31&lt;&gt;"",IF(COUNTIF(G$3:G$37,C31)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(G31&lt;&gt;"",IF(COUNTIF(C$3:C$37,G31)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" t="s">
         <v>90</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF(G31&lt;&gt;"",IF(COUNTIF(K$3:K$37,G31)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K31" t="s">
         <v>88</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f>IF(K31&lt;&gt;"",IF(COUNTIF(O$3:O$37,K31)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O31" t="s">
         <v>88</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f>IF(O31&lt;&gt;"",IF(COUNTIF(S$3:S$37,O31)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v>NIN</v>
       </c>
       <c r="R31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>NIP</v>
       </c>
       <c r="S31" t="s">
         <v>92</v>
       </c>
       <c r="T31" s="1" t="str">
-        <f>IF(S31&lt;&gt;"",IF(COUNTIF(W$3:W$37,S31)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v>NIN</v>
       </c>
       <c r="V31" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W31" t="s">
         <v>91</v>
       </c>
       <c r="X31" s="1" t="str">
-        <f>IF(W31&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W31)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v>NIN</v>
       </c>
       <c r="Z31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA31" t="s">
         <v>89</v>
       </c>
       <c r="AB31" s="1" t="str">
-        <f>IF(AA31&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA31)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD31" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>NIP</v>
       </c>
       <c r="AE31" t="s">
         <v>91</v>
       </c>
       <c r="AF31" s="1" t="str">
-        <f>IF(AE31&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE31)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v>NIN</v>
       </c>
       <c r="AH31" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI31" t="s">
         <v>88</v>
       </c>
       <c r="AJ31" s="1" t="str">
-        <f>IF(AI31&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI31)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL31" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM31" t="s">
@@ -5761,93 +5712,93 @@
     </row>
     <row r="32" spans="3:39" hidden="1" outlineLevel="1">
       <c r="D32" s="1" t="str">
-        <f>IF(C32&lt;&gt;"",IF(COUNTIF(G$3:G$37,C32)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(G32&lt;&gt;"",IF(COUNTIF(C$3:C$37,G32)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF(G32&lt;&gt;"",IF(COUNTIF(K$3:K$37,G32)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K32" t="s">
         <v>90</v>
       </c>
       <c r="L32" s="1" t="str">
-        <f>IF(K32&lt;&gt;"",IF(COUNTIF(O$3:O$37,K32)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O32" t="s">
         <v>90</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f>IF(O32&lt;&gt;"",IF(COUNTIF(S$3:S$37,O32)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T32" s="1" t="str">
-        <f>IF(S32&lt;&gt;"",IF(COUNTIF(W$3:W$37,S32)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V32" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>NIP</v>
       </c>
       <c r="W32" t="s">
         <v>89</v>
       </c>
       <c r="X32" s="1" t="str">
-        <f>IF(W32&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W32)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA32" t="s">
         <v>86</v>
       </c>
       <c r="AB32" s="1" t="str">
-        <f>IF(AA32&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA32)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD32" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE32" t="s">
         <v>89</v>
       </c>
       <c r="AF32" s="1" t="str">
-        <f>IF(AE32&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE32)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI32" t="s">
         <v>90</v>
       </c>
       <c r="AJ32" s="1" t="str">
-        <f>IF(AI32&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI32)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL32" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM32" t="s">
@@ -5856,84 +5807,84 @@
     </row>
     <row r="33" spans="1:39" hidden="1" outlineLevel="1">
       <c r="D33" s="1" t="str">
-        <f>IF(C33&lt;&gt;"",IF(COUNTIF(G$3:G$37,C33)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(G33&lt;&gt;"",IF(COUNTIF(C$3:C$37,G33)=0,"NIP",""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF(G33&lt;&gt;"",IF(COUNTIF(K$3:K$37,G33)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L33" s="1" t="str">
-        <f>IF(K33&lt;&gt;"",IF(COUNTIF(O$3:O$37,K33)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P33" s="1" t="str">
-        <f>IF(O33&lt;&gt;"",IF(COUNTIF(S$3:S$37,O33)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T33" s="1" t="str">
-        <f>IF(S33&lt;&gt;"",IF(COUNTIF(W$3:W$37,S33)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V33" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W33" t="s">
         <v>86</v>
       </c>
       <c r="X33" s="1" t="str">
-        <f>IF(W33&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W33)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AA33" t="s">
         <v>88</v>
       </c>
       <c r="AB33" s="1" t="str">
-        <f>IF(AA33&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA33)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD33" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE33" t="s">
         <v>86</v>
       </c>
       <c r="AF33" s="1" t="str">
-        <f>IF(AE33&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE33)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AJ33" s="1" t="str">
-        <f>IF(AI33&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI33)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL33" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM33" t="s">
@@ -5942,48 +5893,48 @@
     </row>
     <row r="34" spans="1:39" hidden="1" outlineLevel="1">
       <c r="D34" s="1" t="str">
-        <f>IF(C34&lt;&gt;"",IF(COUNTIF(G$3:G$37,C34)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF(G34&lt;&gt;"",IF(COUNTIF(K$3:K$37,G34)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L34" s="1" t="str">
-        <f>IF(K34&lt;&gt;"",IF(COUNTIF(O$3:O$37,K34)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P34" s="1" t="str">
-        <f>IF(O34&lt;&gt;"",IF(COUNTIF(S$3:S$37,O34)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T34" s="1" t="str">
-        <f>IF(S34&lt;&gt;"",IF(COUNTIF(W$3:W$37,S34)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W34" t="s">
         <v>88</v>
       </c>
       <c r="X34" s="1" t="str">
-        <f>IF(W34&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W34)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA34" t="s">
         <v>90</v>
       </c>
       <c r="AB34" s="1" t="str">
-        <f>IF(AA34&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA34)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE34" t="s">
         <v>88</v>
       </c>
       <c r="AF34" s="1" t="str">
-        <f>IF(AE34&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE34)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ34" s="1" t="str">
-        <f>IF(AI34&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI34)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM34" t="s">
@@ -5992,45 +5943,45 @@
     </row>
     <row r="35" spans="1:39" hidden="1" outlineLevel="1">
       <c r="D35" s="1" t="str">
-        <f>IF(C35&lt;&gt;"",IF(COUNTIF(G$3:G$37,C35)=0,"NIN",""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF(G35&lt;&gt;"",IF(COUNTIF(K$3:K$37,G35)=0,"NIN",""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L35" s="1" t="str">
-        <f>IF(K35&lt;&gt;"",IF(COUNTIF(O$3:O$37,K35)=0,"NIN",""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P35" s="1" t="str">
-        <f>IF(O35&lt;&gt;"",IF(COUNTIF(S$3:S$37,O35)=0,"NIN",""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T35" s="1" t="str">
-        <f>IF(S35&lt;&gt;"",IF(COUNTIF(W$3:W$37,S35)=0,"NIN",""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W35" t="s">
         <v>90</v>
       </c>
       <c r="X35" s="1" t="str">
-        <f>IF(W35&lt;&gt;"",IF(COUNTIF(AA$3:AA$37,W35)=0,"NIN",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB35" s="1" t="str">
-        <f>IF(AA35&lt;&gt;"",IF(COUNTIF(AE$3:AE$37,AA35)=0,"NIN",""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE35" t="s">
         <v>90</v>
       </c>
       <c r="AF35" s="1" t="str">
-        <f>IF(AE35&lt;&gt;"",IF(COUNTIF(AI$3:AI$37,AE35)=0,"NIN",""),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ35" s="1" t="str">
-        <f>IF(AI35&lt;&gt;"",IF(COUNTIF(AM$3:AM$37,AI35)=0,"NIN",""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6086,7 +6037,7 @@
         <v>96</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A39)=1,$B39,"")</f>
+        <f t="shared" ref="C39:C49" si="18">IF(COUNTIF(C$3:C$37,$A39)=1,$B39,"")</f>
         <v>point</v>
       </c>
       <c r="G39" s="1" t="str">
@@ -6134,43 +6085,43 @@
         <v>97</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A40)=1,$B40,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" ref="G40:G49" si="8">IF(COUNTIF(G$3:G$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="G40:G49" si="19">IF(COUNTIF(G$3:G$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
       <c r="K40" s="1" t="str">
-        <f t="shared" ref="K40:K49" si="9">IF(COUNTIF(K$3:K$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="K40:K49" si="20">IF(COUNTIF(K$3:K$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
       <c r="O40" s="1" t="str">
-        <f t="shared" ref="O40:O49" si="10">IF(COUNTIF(O$3:O$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="O40:O49" si="21">IF(COUNTIF(O$3:O$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
       <c r="S40" s="1" t="str">
-        <f t="shared" ref="S40:S49" si="11">IF(COUNTIF(S$3:S$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="S40:S49" si="22">IF(COUNTIF(S$3:S$37,$A40)=1,$B40,"")</f>
         <v>tick</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f t="shared" ref="W40:W49" si="12">IF(COUNTIF(W$3:W$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="W40:W49" si="23">IF(COUNTIF(W$3:W$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
       <c r="AA40" s="1" t="str">
-        <f t="shared" ref="AA40:AA49" si="13">IF(COUNTIF(AA$3:AA$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="AA40:AA49" si="24">IF(COUNTIF(AA$3:AA$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
       <c r="AE40" s="1" t="str">
-        <f t="shared" ref="AE40:AE49" si="14">IF(COUNTIF(AE$3:AE$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="AE40:AE49" si="25">IF(COUNTIF(AE$3:AE$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
       <c r="AI40" s="1" t="str">
-        <f t="shared" ref="AI40:AI49" si="15">IF(COUNTIF(AI$3:AI$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="AI40:AI49" si="26">IF(COUNTIF(AI$3:AI$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
       <c r="AM40" s="1" t="str">
-        <f t="shared" ref="AM40:AM48" si="16">IF(COUNTIF(AM$3:AM$37,$A40)=1,$B40,"")</f>
+        <f t="shared" ref="AM40:AM48" si="27">IF(COUNTIF(AM$3:AM$37,$A40)=1,$B40,"")</f>
         <v/>
       </c>
     </row>
@@ -6182,43 +6133,43 @@
         <v>99</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A41)=1,$B41,"")</f>
+        <f t="shared" si="18"/>
         <v>Disp. on x</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K41" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>Disp. on x</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>Disp. on x</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>Disp. on x</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>Disp. on x</v>
       </c>
       <c r="AA41" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE41" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>Disp. on x</v>
       </c>
       <c r="AI41" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>Disp. on x</v>
       </c>
       <c r="AM41" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6230,43 +6181,43 @@
         <v>100</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A42)=1,$B42,"")</f>
+        <f t="shared" si="18"/>
         <v>HP on y</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>HP on y</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>HP on y</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>HP on y</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>HP on y</v>
       </c>
       <c r="AA42" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE42" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>HP on y</v>
       </c>
       <c r="AI42" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>HP on y</v>
       </c>
       <c r="AM42" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6278,43 +6229,43 @@
         <v>101</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A43)=1,$B43,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G43" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>HP on x</v>
       </c>
       <c r="K43" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O43" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S43" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W43" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA43" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>HP on x</v>
       </c>
       <c r="AE43" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AI43" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM43" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>HP on x</v>
       </c>
     </row>
@@ -6326,43 +6277,43 @@
         <v>102</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A44)=1,$B44,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>Disp. on y</v>
       </c>
       <c r="K44" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O44" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W44" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA44" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>Disp. on y</v>
       </c>
       <c r="AE44" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AI44" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM44" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>Disp. on y</v>
       </c>
     </row>
@@ -6374,43 +6325,43 @@
         <v>103</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A45)=1,$B45,"")</f>
+        <f t="shared" si="18"/>
         <v>zero Disp.</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>zero Disp.</v>
       </c>
       <c r="K45" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O45" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>zero Disp.</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W45" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA45" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE45" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>zero Disp.</v>
       </c>
       <c r="AI45" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM45" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>zero Disp.</v>
       </c>
     </row>
@@ -6422,43 +6373,43 @@
         <v>104</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A46)=1,$B46,"")</f>
+        <f t="shared" si="18"/>
         <v>zero HP</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>zero HP</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>zero HP</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>zero HP</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>zero HP</v>
       </c>
       <c r="AA46" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>zero HP</v>
       </c>
       <c r="AE46" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AI46" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM46" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6470,43 +6421,43 @@
         <v>105</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A47)=1,$B47,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O47" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S47" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W47" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>log Disp.</v>
       </c>
       <c r="AA47" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE47" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AI47" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM47" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6518,43 +6469,43 @@
         <v>106</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A48)=1,$B48,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O48" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W48" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA48" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE48" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>log HP</v>
       </c>
       <c r="AI48" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM48" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6566,39 +6517,39 @@
         <v>107</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>IF(COUNTIF(C$3:C$37,$A49)=1,$B49,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G49" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K49" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O49" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>bin Disp.</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA49" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE49" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AI49" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -6775,99 +6726,99 @@
         <v>43</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" ref="D57:D88" si="17">IF(C57&lt;&gt;"",IF(COUNTIF(G$56:G$88,C57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="D57:D88" si="28">IF(C57&lt;&gt;"",IF(COUNTIF(G$56:G$88,C57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" ref="F57:F86" si="18">IF(G57&lt;&gt;"",IF(COUNTIF(C$56:C$88,G57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="F57:F86" si="29">IF(G57&lt;&gt;"",IF(COUNTIF(C$56:C$88,G57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="G57" t="s">
         <v>43</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" ref="H57:H88" si="19">IF(G57&lt;&gt;"",IF(COUNTIF(K$56:K$88,G57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="H57:H88" si="30">IF(G57&lt;&gt;"",IF(COUNTIF(K$56:K$88,G57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="J57" s="1" t="str">
-        <f t="shared" ref="J57:J86" si="20">IF(K57&lt;&gt;"",IF(COUNTIF(G$56:G$88,K57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="J57:J86" si="31">IF(K57&lt;&gt;"",IF(COUNTIF(G$56:G$88,K57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="K57" t="s">
         <v>43</v>
       </c>
       <c r="L57" s="1" t="str">
-        <f t="shared" ref="L57:L88" si="21">IF(K57&lt;&gt;"",IF(COUNTIF(O$56:O$88,K57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="L57:L88" si="32">IF(K57&lt;&gt;"",IF(COUNTIF(O$56:O$88,K57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="N57" s="1" t="str">
-        <f t="shared" ref="N57:N86" si="22">IF(O57&lt;&gt;"",IF(COUNTIF(K$56:K$88,O57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="N57:N86" si="33">IF(O57&lt;&gt;"",IF(COUNTIF(K$56:K$88,O57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="O57" t="s">
         <v>43</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f t="shared" ref="P57:P88" si="23">IF(O57&lt;&gt;"",IF(COUNTIF(S$56:S$88,O57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="P57:P88" si="34">IF(O57&lt;&gt;"",IF(COUNTIF(S$56:S$88,O57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="R57" s="1" t="str">
-        <f t="shared" ref="R57:R86" si="24">IF(S57&lt;&gt;"",IF(COUNTIF(O$56:O$88,S57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="R57:R86" si="35">IF(S57&lt;&gt;"",IF(COUNTIF(O$56:O$88,S57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="S57" t="s">
         <v>43</v>
       </c>
       <c r="T57" s="1" t="str">
-        <f t="shared" ref="T57:T88" si="25">IF(S57&lt;&gt;"",IF(COUNTIF(W$56:W$88,S57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="T57:T88" si="36">IF(S57&lt;&gt;"",IF(COUNTIF(W$56:W$88,S57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="V57" s="1" t="str">
-        <f t="shared" ref="V57:V86" si="26">IF(W57&lt;&gt;"",IF(COUNTIF(S$56:S$88,W57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="V57:V86" si="37">IF(W57&lt;&gt;"",IF(COUNTIF(S$56:S$88,W57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="W57" t="s">
         <v>43</v>
       </c>
       <c r="X57" s="1" t="str">
-        <f t="shared" ref="X57:X88" si="27">IF(W57&lt;&gt;"",IF(COUNTIF(AA$56:AA$88,W57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="X57:X88" si="38">IF(W57&lt;&gt;"",IF(COUNTIF(AA$56:AA$88,W57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="Z57" s="1" t="str">
-        <f t="shared" ref="Z57:Z86" si="28">IF(AA57&lt;&gt;"",IF(COUNTIF(W$56:W$88,AA57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="Z57:Z86" si="39">IF(AA57&lt;&gt;"",IF(COUNTIF(W$56:W$88,AA57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AA57" t="s">
         <v>43</v>
       </c>
       <c r="AB57" s="1" t="str">
-        <f t="shared" ref="AB57:AB88" si="29">IF(AA57&lt;&gt;"",IF(COUNTIF(AE$56:AE$88,AA57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="AB57:AB88" si="40">IF(AA57&lt;&gt;"",IF(COUNTIF(AE$56:AE$88,AA57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="AD57" s="1" t="str">
-        <f t="shared" ref="AD57:AD86" si="30">IF(AE57&lt;&gt;"",IF(COUNTIF(AA$56:AA$88,AE57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="AD57:AD86" si="41">IF(AE57&lt;&gt;"",IF(COUNTIF(AA$56:AA$88,AE57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AE57" t="s">
         <v>43</v>
       </c>
       <c r="AF57" s="1" t="str">
-        <f t="shared" ref="AF57:AF88" si="31">IF(AE57&lt;&gt;"",IF(COUNTIF(AI$56:AI$88,AE57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="AF57:AF88" si="42">IF(AE57&lt;&gt;"",IF(COUNTIF(AI$56:AI$88,AE57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="AH57" s="1" t="str">
-        <f t="shared" ref="AH57:AH86" si="32">IF(AI57&lt;&gt;"",IF(COUNTIF(AE$56:AE$88,AI57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="AH57:AH86" si="43">IF(AI57&lt;&gt;"",IF(COUNTIF(AE$56:AE$88,AI57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AI57" t="s">
         <v>43</v>
       </c>
       <c r="AJ57" s="1" t="str">
-        <f t="shared" ref="AJ57:AJ88" si="33">IF(AI57&lt;&gt;"",IF(COUNTIF(AM$56:AM$88,AI57)=0,"NIN",""),"")</f>
+        <f t="shared" ref="AJ57:AJ88" si="44">IF(AI57&lt;&gt;"",IF(COUNTIF(AM$56:AM$88,AI57)=0,"NIN",""),"")</f>
         <v/>
       </c>
       <c r="AL57" s="1" t="str">
-        <f t="shared" ref="AL57:AL86" si="34">IF(AM57&lt;&gt;"",IF(COUNTIF(AI$56:AI$88,AM57)=0,"NIP",""),"")</f>
+        <f t="shared" ref="AL57:AL86" si="45">IF(AM57&lt;&gt;"",IF(COUNTIF(AI$56:AI$88,AM57)=0,"NIP",""),"")</f>
         <v/>
       </c>
       <c r="AM57" t="s">
@@ -6879,99 +6830,99 @@
         <v>44</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G58" t="s">
         <v>44</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J58" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K58" t="s">
         <v>44</v>
       </c>
       <c r="L58" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N58" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O58" t="s">
         <v>44</v>
       </c>
       <c r="P58" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R58" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S58" t="s">
         <v>44</v>
       </c>
       <c r="T58" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V58" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W58" t="s">
         <v>44</v>
       </c>
       <c r="X58" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z58" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA58" t="s">
         <v>44</v>
       </c>
       <c r="AB58" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD58" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE58" t="s">
         <v>44</v>
       </c>
       <c r="AF58" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH58" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI58" t="s">
         <v>44</v>
       </c>
       <c r="AJ58" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL58" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM58" t="s">
@@ -6983,99 +6934,99 @@
         <v>52</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G59" t="s">
         <v>52</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J59" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K59" t="s">
         <v>52</v>
       </c>
       <c r="L59" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N59" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O59" t="s">
         <v>52</v>
       </c>
       <c r="P59" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R59" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S59" t="s">
         <v>52</v>
       </c>
       <c r="T59" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V59" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W59" t="s">
         <v>52</v>
       </c>
       <c r="X59" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z59" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA59" t="s">
         <v>52</v>
       </c>
       <c r="AB59" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD59" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE59" t="s">
         <v>52</v>
       </c>
       <c r="AF59" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH59" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI59" t="s">
         <v>52</v>
       </c>
       <c r="AJ59" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL59" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM59" t="s">
@@ -7087,99 +7038,99 @@
         <v>53</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G60" t="s">
         <v>53</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J60" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K60" t="s">
         <v>53</v>
       </c>
       <c r="L60" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N60" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O60" t="s">
         <v>53</v>
       </c>
       <c r="P60" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R60" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S60" t="s">
         <v>53</v>
       </c>
       <c r="T60" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V60" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W60" t="s">
         <v>53</v>
       </c>
       <c r="X60" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z60" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA60" t="s">
         <v>53</v>
       </c>
       <c r="AB60" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD60" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE60" t="s">
         <v>53</v>
       </c>
       <c r="AF60" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH60" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI60" t="s">
         <v>53</v>
       </c>
       <c r="AJ60" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL60" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM60" t="s">
@@ -7191,99 +7142,99 @@
         <v>45</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G61" t="s">
         <v>45</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J61" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K61" t="s">
         <v>45</v>
       </c>
       <c r="L61" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N61" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O61" t="s">
         <v>45</v>
       </c>
       <c r="P61" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R61" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S61" t="s">
         <v>45</v>
       </c>
       <c r="T61" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V61" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W61" t="s">
         <v>45</v>
       </c>
       <c r="X61" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z61" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA61" t="s">
         <v>45</v>
       </c>
       <c r="AB61" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD61" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE61" t="s">
         <v>45</v>
       </c>
       <c r="AF61" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH61" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI61" t="s">
         <v>45</v>
       </c>
       <c r="AJ61" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL61" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM61" t="s">
@@ -7295,99 +7246,99 @@
         <v>46</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G62" t="s">
         <v>46</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J62" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K62" t="s">
         <v>46</v>
       </c>
       <c r="L62" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N62" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O62" t="s">
         <v>46</v>
       </c>
       <c r="P62" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R62" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S62" t="s">
         <v>46</v>
       </c>
       <c r="T62" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V62" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W62" t="s">
         <v>46</v>
       </c>
       <c r="X62" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z62" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA62" t="s">
         <v>46</v>
       </c>
       <c r="AB62" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD62" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE62" t="s">
         <v>46</v>
       </c>
       <c r="AF62" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH62" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI62" t="s">
         <v>46</v>
       </c>
       <c r="AJ62" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL62" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM62" t="s">
@@ -7399,99 +7350,99 @@
         <v>66</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G63" t="s">
         <v>66</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J63" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K63" t="s">
         <v>66</v>
       </c>
       <c r="L63" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N63" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O63" t="s">
         <v>66</v>
       </c>
       <c r="P63" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R63" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S63" t="s">
         <v>66</v>
       </c>
       <c r="T63" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V63" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W63" t="s">
         <v>66</v>
       </c>
       <c r="X63" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z63" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA63" t="s">
         <v>66</v>
       </c>
       <c r="AB63" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD63" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE63" t="s">
         <v>66</v>
       </c>
       <c r="AF63" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH63" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI63" t="s">
         <v>66</v>
       </c>
       <c r="AJ63" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL63" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM63" t="s">
@@ -7503,99 +7454,99 @@
         <v>68</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G64" t="s">
         <v>68</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J64" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K64" t="s">
         <v>68</v>
       </c>
       <c r="L64" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N64" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O64" t="s">
         <v>68</v>
       </c>
       <c r="P64" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R64" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S64" t="s">
         <v>68</v>
       </c>
       <c r="T64" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V64" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W64" t="s">
         <v>68</v>
       </c>
       <c r="X64" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z64" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA64" t="s">
         <v>68</v>
       </c>
       <c r="AB64" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD64" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE64" t="s">
         <v>68</v>
       </c>
       <c r="AF64" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH64" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI64" t="s">
         <v>68</v>
       </c>
       <c r="AJ64" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL64" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM64" t="s">
@@ -7607,99 +7558,99 @@
         <v>47</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G65" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J65" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K65" t="s">
         <v>47</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N65" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O65" t="s">
         <v>47</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R65" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S65" t="s">
         <v>47</v>
       </c>
       <c r="T65" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V65" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W65" t="s">
         <v>47</v>
       </c>
       <c r="X65" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z65" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA65" t="s">
         <v>47</v>
       </c>
       <c r="AB65" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD65" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE65" t="s">
         <v>47</v>
       </c>
       <c r="AF65" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH65" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI65" t="s">
         <v>47</v>
       </c>
       <c r="AJ65" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL65" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM65" t="s">
@@ -7711,99 +7662,99 @@
         <v>82</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G66" t="s">
         <v>82</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J66" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K66" t="s">
         <v>82</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N66" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O66" t="s">
         <v>82</v>
       </c>
       <c r="P66" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R66" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S66" t="s">
         <v>82</v>
       </c>
       <c r="T66" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V66" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W66" t="s">
         <v>82</v>
       </c>
       <c r="X66" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z66" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA66" t="s">
         <v>82</v>
       </c>
       <c r="AB66" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD66" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE66" t="s">
         <v>82</v>
       </c>
       <c r="AF66" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH66" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI66" t="s">
         <v>82</v>
       </c>
       <c r="AJ66" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL66" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM66" t="s">
@@ -7815,99 +7766,99 @@
         <v>48</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G67" t="s">
         <v>48</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K67" t="s">
         <v>48</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N67" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O67" t="s">
         <v>48</v>
       </c>
       <c r="P67" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R67" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S67" t="s">
         <v>48</v>
       </c>
       <c r="T67" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V67" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W67" t="s">
         <v>48</v>
       </c>
       <c r="X67" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z67" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA67" t="s">
         <v>48</v>
       </c>
       <c r="AB67" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>NIN</v>
       </c>
       <c r="AD67" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>NIP</v>
       </c>
       <c r="AE67" t="s">
         <v>49</v>
       </c>
       <c r="AF67" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>NIN</v>
       </c>
       <c r="AH67" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI67" t="s">
         <v>48</v>
       </c>
       <c r="AJ67" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL67" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM67" t="s">
@@ -7919,99 +7870,99 @@
         <v>50</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G68" t="s">
         <v>50</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K68" t="s">
         <v>50</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N68" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O68" t="s">
         <v>50</v>
       </c>
       <c r="P68" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R68" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S68" t="s">
         <v>50</v>
       </c>
       <c r="T68" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V68" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W68" t="s">
         <v>50</v>
       </c>
       <c r="X68" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z68" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA68" t="s">
         <v>50</v>
       </c>
       <c r="AB68" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>NIN</v>
       </c>
       <c r="AD68" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>NIP</v>
       </c>
       <c r="AE68" t="s">
         <v>51</v>
       </c>
       <c r="AF68" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>NIN</v>
       </c>
       <c r="AH68" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI68" t="s">
         <v>50</v>
       </c>
       <c r="AJ68" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL68" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM68" t="s">
@@ -8023,99 +7974,99 @@
         <v>54</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>NIN</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G69" t="s">
         <v>55</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>NIN</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>NIP</v>
       </c>
       <c r="K69" t="s">
         <v>54</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>NIN</v>
       </c>
       <c r="N69" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>NIP</v>
       </c>
       <c r="O69" t="s">
         <v>55</v>
       </c>
       <c r="P69" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>NIN</v>
       </c>
       <c r="R69" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S69" t="s">
         <v>58</v>
       </c>
       <c r="T69" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V69" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>NIP</v>
       </c>
       <c r="W69" t="s">
         <v>54</v>
       </c>
       <c r="X69" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z69" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA69" t="s">
         <v>56</v>
       </c>
       <c r="AB69" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>NIN</v>
       </c>
       <c r="AD69" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>NIP</v>
       </c>
       <c r="AE69" t="s">
         <v>57</v>
       </c>
       <c r="AF69" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>NIN</v>
       </c>
       <c r="AH69" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI69" t="s">
         <v>56</v>
       </c>
       <c r="AJ69" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL69" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM69" t="s">
@@ -8127,99 +8078,99 @@
         <v>55</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G70" t="s">
         <v>58</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K70" t="s">
         <v>58</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N70" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O70" t="s">
         <v>58</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R70" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S70" t="s">
         <v>59</v>
       </c>
       <c r="T70" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V70" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W70" t="s">
         <v>58</v>
       </c>
       <c r="X70" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z70" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA70" t="s">
         <v>54</v>
       </c>
       <c r="AB70" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>NIN</v>
       </c>
       <c r="AD70" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>NIP</v>
       </c>
       <c r="AE70" t="s">
         <v>55</v>
       </c>
       <c r="AF70" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH70" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI70" t="s">
         <v>54</v>
       </c>
       <c r="AJ70" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL70" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM70" t="s">
@@ -8231,99 +8182,99 @@
         <v>58</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G71" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K71" t="s">
         <v>59</v>
       </c>
       <c r="L71" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N71" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O71" t="s">
         <v>59</v>
       </c>
       <c r="P71" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R71" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S71" t="s">
         <v>60</v>
       </c>
       <c r="T71" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V71" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W71" t="s">
         <v>59</v>
       </c>
       <c r="X71" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z71" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA71" t="s">
         <v>58</v>
       </c>
       <c r="AB71" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD71" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE71" t="s">
         <v>58</v>
       </c>
       <c r="AF71" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH71" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI71" t="s">
         <v>55</v>
       </c>
       <c r="AJ71" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL71" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM71" t="s">
@@ -8335,99 +8286,99 @@
         <v>59</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G72" t="s">
         <v>60</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K72" t="s">
         <v>60</v>
       </c>
       <c r="L72" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N72" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O72" t="s">
         <v>60</v>
       </c>
       <c r="P72" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R72" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S72" t="s">
         <v>61</v>
       </c>
       <c r="T72" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V72" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W72" t="s">
         <v>60</v>
       </c>
       <c r="X72" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z72" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA72" t="s">
         <v>59</v>
       </c>
       <c r="AB72" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD72" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE72" t="s">
         <v>59</v>
       </c>
       <c r="AF72" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH72" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI72" t="s">
         <v>58</v>
       </c>
       <c r="AJ72" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL72" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM72" t="s">
@@ -8439,99 +8390,99 @@
         <v>60</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>NIP</v>
       </c>
       <c r="G73" t="s">
         <v>61</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K73" t="s">
         <v>61</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N73" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O73" t="s">
         <v>61</v>
       </c>
       <c r="P73" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R73" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S73" t="s">
         <v>63</v>
       </c>
       <c r="T73" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V73" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W73" t="s">
         <v>61</v>
       </c>
       <c r="X73" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z73" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA73" t="s">
         <v>62</v>
       </c>
       <c r="AB73" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD73" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE73" t="s">
         <v>62</v>
       </c>
       <c r="AF73" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH73" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI73" t="s">
         <v>59</v>
       </c>
       <c r="AJ73" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL73" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM73" t="s">
@@ -8543,99 +8494,99 @@
         <v>63</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G74" t="s">
         <v>63</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K74" t="s">
         <v>63</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N74" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O74" t="s">
         <v>63</v>
       </c>
       <c r="P74" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R74" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S74" t="s">
         <v>71</v>
       </c>
       <c r="T74" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>NIN</v>
       </c>
       <c r="V74" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W74" t="s">
         <v>63</v>
       </c>
       <c r="X74" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z74" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA74" t="s">
         <v>64</v>
       </c>
       <c r="AB74" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD74" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE74" t="s">
         <v>64</v>
       </c>
       <c r="AF74" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH74" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI74" t="s">
         <v>62</v>
       </c>
       <c r="AJ74" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL74" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM74" t="s">
@@ -8647,99 +8598,99 @@
         <v>70</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>NIP</v>
       </c>
       <c r="G75" t="s">
         <v>71</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>NIN</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>NIP</v>
       </c>
       <c r="K75" t="s">
         <v>72</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>NIN</v>
       </c>
       <c r="N75" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>NIP</v>
       </c>
       <c r="O75" t="s">
         <v>74</v>
       </c>
       <c r="P75" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>NIN</v>
       </c>
       <c r="R75" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>NIP</v>
       </c>
       <c r="S75" t="s">
         <v>72</v>
       </c>
       <c r="T75" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V75" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>NIP</v>
       </c>
       <c r="W75" t="s">
         <v>93</v>
       </c>
       <c r="X75" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z75" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA75" t="s">
         <v>69</v>
       </c>
       <c r="AB75" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>NIN</v>
       </c>
       <c r="AD75" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>NIP</v>
       </c>
       <c r="AE75" t="s">
         <v>67</v>
       </c>
       <c r="AF75" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>NIN</v>
       </c>
       <c r="AH75" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI75" t="s">
         <v>64</v>
       </c>
       <c r="AJ75" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL75" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM75" t="s">
@@ -8751,99 +8702,99 @@
         <v>73</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G76" t="s">
         <v>70</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K76" t="s">
         <v>70</v>
       </c>
       <c r="L76" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N76" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>NIP</v>
       </c>
       <c r="O76" t="s">
         <v>76</v>
       </c>
       <c r="P76" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>NIN</v>
       </c>
       <c r="R76" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S76" t="s">
         <v>70</v>
       </c>
       <c r="T76" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V76" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>NIP</v>
       </c>
       <c r="W76" t="s">
         <v>94</v>
       </c>
       <c r="X76" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z76" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA76" t="s">
         <v>70</v>
       </c>
       <c r="AB76" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD76" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE76" t="s">
         <v>70</v>
       </c>
       <c r="AF76" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH76" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI76" t="s">
         <v>69</v>
       </c>
       <c r="AJ76" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL76" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM76" t="s">
@@ -8855,99 +8806,99 @@
         <v>77</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G77" t="s">
         <v>73</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K77" t="s">
         <v>73</v>
       </c>
       <c r="L77" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N77" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>NIP</v>
       </c>
       <c r="O77" t="s">
         <v>71</v>
       </c>
       <c r="P77" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R77" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S77" t="s">
         <v>73</v>
       </c>
       <c r="T77" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V77" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W77" t="s">
         <v>72</v>
       </c>
       <c r="X77" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z77" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA77" t="s">
         <v>73</v>
       </c>
       <c r="AB77" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD77" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE77" t="s">
         <v>73</v>
       </c>
       <c r="AF77" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH77" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI77" t="s">
         <v>118</v>
       </c>
       <c r="AJ77" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL77" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM77" t="s">
@@ -8959,99 +8910,99 @@
         <v>79</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G78" t="s">
         <v>77</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K78" t="s">
         <v>77</v>
       </c>
       <c r="L78" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N78" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O78" t="s">
         <v>70</v>
       </c>
       <c r="P78" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R78" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S78" t="s">
         <v>77</v>
       </c>
       <c r="T78" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V78" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W78" t="s">
         <v>70</v>
       </c>
       <c r="X78" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z78" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA78" t="s">
         <v>79</v>
       </c>
       <c r="AB78" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>NIN</v>
       </c>
       <c r="AD78" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>NIP</v>
       </c>
       <c r="AE78" t="s">
         <v>78</v>
       </c>
       <c r="AF78" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>NIN</v>
       </c>
       <c r="AH78" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI78" t="s">
         <v>70</v>
       </c>
       <c r="AJ78" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL78" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM78" t="s">
@@ -9063,99 +9014,99 @@
         <v>80</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G79" t="s">
         <v>79</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K79" t="s">
         <v>79</v>
       </c>
       <c r="L79" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N79" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O79" t="s">
         <v>73</v>
       </c>
       <c r="P79" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R79" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S79" t="s">
         <v>79</v>
       </c>
       <c r="T79" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V79" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W79" t="s">
         <v>73</v>
       </c>
       <c r="X79" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z79" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA79" t="s">
         <v>84</v>
       </c>
       <c r="AB79" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>NIN</v>
       </c>
       <c r="AD79" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>NIP</v>
       </c>
       <c r="AE79" t="s">
         <v>81</v>
       </c>
       <c r="AF79" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>NIN</v>
       </c>
       <c r="AH79" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI79" t="s">
         <v>73</v>
       </c>
       <c r="AJ79" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL79" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM79" t="s">
@@ -9167,789 +9118,789 @@
         <v>86</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>NIP</v>
       </c>
       <c r="G80" t="s">
         <v>83</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K80" t="s">
         <v>83</v>
       </c>
       <c r="L80" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N80" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O80" t="s">
         <v>77</v>
       </c>
       <c r="P80" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R80" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S80" t="s">
         <v>83</v>
       </c>
       <c r="T80" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V80" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W80" t="s">
         <v>77</v>
       </c>
       <c r="X80" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z80" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA80" t="s">
         <v>85</v>
       </c>
       <c r="AB80" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD80" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE80" t="s">
         <v>85</v>
       </c>
       <c r="AF80" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH80" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI80" t="s">
         <v>79</v>
       </c>
       <c r="AJ80" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL80" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM80" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="81" spans="1:45" hidden="1" outlineLevel="1">
       <c r="C81" t="s">
         <v>88</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G81" t="s">
         <v>80</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K81" t="s">
         <v>80</v>
       </c>
       <c r="L81" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N81" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O81" t="s">
         <v>79</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R81" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S81" t="s">
         <v>80</v>
       </c>
       <c r="T81" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V81" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W81" t="s">
         <v>79</v>
       </c>
       <c r="X81" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z81" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA81" t="s">
         <v>87</v>
       </c>
       <c r="AB81" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD81" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE81" t="s">
         <v>87</v>
       </c>
       <c r="AF81" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH81" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI81" t="s">
         <v>84</v>
       </c>
       <c r="AJ81" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL81" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM81" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="82" spans="1:45" hidden="1" outlineLevel="1">
       <c r="C82" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>NIP</v>
       </c>
       <c r="G82" t="s">
         <v>89</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K82" t="s">
         <v>89</v>
       </c>
       <c r="L82" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N82" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O82" t="s">
         <v>83</v>
       </c>
       <c r="P82" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R82" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S82" t="s">
         <v>89</v>
       </c>
       <c r="T82" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V82" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W82" t="s">
         <v>83</v>
       </c>
       <c r="X82" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z82" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA82" t="s">
         <v>86</v>
       </c>
       <c r="AB82" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD82" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE82" t="s">
         <v>86</v>
       </c>
       <c r="AF82" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH82" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI82" t="s">
         <v>85</v>
       </c>
       <c r="AJ82" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL82" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="83" spans="1:45" hidden="1" outlineLevel="1">
       <c r="D83" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G83" t="s">
         <v>86</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K83" t="s">
         <v>86</v>
       </c>
       <c r="L83" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N83" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O83" t="s">
         <v>80</v>
       </c>
       <c r="P83" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R83" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S83" t="s">
         <v>86</v>
       </c>
       <c r="T83" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V83" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W83" t="s">
         <v>80</v>
       </c>
       <c r="X83" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z83" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA83" t="s">
         <v>90</v>
       </c>
       <c r="AB83" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD83" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE83" t="s">
         <v>90</v>
       </c>
       <c r="AF83" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH83" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI83" t="s">
         <v>87</v>
       </c>
       <c r="AJ83" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL83" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM83" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="84" spans="1:45" hidden="1" outlineLevel="1">
       <c r="D84" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G84" t="s">
         <v>88</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K84" t="s">
         <v>88</v>
       </c>
       <c r="L84" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N84" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>NIP</v>
       </c>
       <c r="O84" t="s">
         <v>91</v>
       </c>
       <c r="P84" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>NIN</v>
       </c>
       <c r="R84" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S84" t="s">
         <v>88</v>
       </c>
       <c r="T84" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V84" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>NIP</v>
       </c>
       <c r="W84" t="s">
         <v>91</v>
       </c>
       <c r="X84" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z84" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>NIP</v>
       </c>
       <c r="AA84" t="s">
         <v>92</v>
       </c>
       <c r="AB84" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD84" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AE84" t="s">
         <v>92</v>
       </c>
       <c r="AF84" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH84" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>NIP</v>
       </c>
       <c r="AI84" t="s">
         <v>121</v>
       </c>
       <c r="AJ84" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL84" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:45" hidden="1" outlineLevel="1">
       <c r="D85" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G85" t="s">
         <v>90</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K85" t="s">
         <v>90</v>
       </c>
       <c r="L85" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N85" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O85" t="s">
         <v>89</v>
       </c>
       <c r="P85" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R85" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S85" t="s">
         <v>90</v>
       </c>
       <c r="T85" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V85" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W85" t="s">
         <v>89</v>
       </c>
       <c r="X85" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="Z85" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AB85" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD85" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AF85" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH85" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI85" t="s">
         <v>86</v>
       </c>
       <c r="AJ85" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL85" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM85" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="86" spans="1:45" hidden="1" outlineLevel="1">
       <c r="D86" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H86" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L86" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N86" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O86" t="s">
         <v>86</v>
       </c>
       <c r="P86" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R86" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T86" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V86" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W86" t="s">
         <v>86</v>
       </c>
       <c r="X86" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z86" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AB86" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AD86" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AF86" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AH86" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AI86" t="s">
         <v>90</v>
       </c>
       <c r="AJ86" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
       <c r="AL86" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>NIP</v>
       </c>
       <c r="AM86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="87" spans="1:45" hidden="1" outlineLevel="1">
       <c r="D87" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H87" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L87" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O87" t="s">
         <v>88</v>
       </c>
       <c r="P87" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T87" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="W87" t="s">
         <v>88</v>
       </c>
       <c r="X87" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>NIN</v>
       </c>
       <c r="AB87" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AF87" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AI87" t="s">
         <v>92</v>
       </c>
       <c r="AJ87" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>NIN</v>
       </c>
     </row>
-    <row r="88" spans="1:39" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:45" hidden="1" outlineLevel="1">
       <c r="D88" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H88" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L88" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O88" t="s">
         <v>90</v>
       </c>
       <c r="P88" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T88" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="W88" t="s">
         <v>90</v>
       </c>
       <c r="X88" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB88" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AF88" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AJ88" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:39" hidden="1" outlineLevel="1"/>
-    <row r="90" spans="1:39" hidden="1" outlineLevel="1">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:45" hidden="1" outlineLevel="1"/>
+    <row r="90" spans="1:45" hidden="1" outlineLevel="1">
       <c r="C90" s="3">
         <v>1</v>
       </c>
@@ -9981,7 +9932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:39" collapsed="1">
+    <row r="91" spans="1:45" collapsed="1">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -10029,7 +9980,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:45">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -10037,47 +9988,47 @@
         <v>97</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f t="shared" ref="C92:C102" si="35">IF(COUNTIF(C$56:C$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="C92:C102" si="46">IF(COUNTIF(C$56:C$88,$A92)=1,$B92,"")</f>
         <v/>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" ref="G92:G102" si="36">IF(COUNTIF(G$56:G$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="G92:G102" si="47">IF(COUNTIF(G$56:G$88,$A92)=1,$B92,"")</f>
         <v/>
       </c>
       <c r="K92" s="1" t="str">
-        <f t="shared" ref="K92:K102" si="37">IF(COUNTIF(K$56:K$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="K92:K102" si="48">IF(COUNTIF(K$56:K$88,$A92)=1,$B92,"")</f>
         <v/>
       </c>
       <c r="O92" s="1" t="str">
-        <f t="shared" ref="O92:O102" si="38">IF(COUNTIF(O$56:O$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="O92:O102" si="49">IF(COUNTIF(O$56:O$88,$A92)=1,$B92,"")</f>
         <v/>
       </c>
       <c r="S92" s="1" t="str">
-        <f t="shared" ref="S92:S102" si="39">IF(COUNTIF(S$56:S$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="S92:S102" si="50">IF(COUNTIF(S$56:S$88,$A92)=1,$B92,"")</f>
         <v/>
       </c>
       <c r="W92" s="1" t="str">
-        <f t="shared" ref="W92:W102" si="40">IF(COUNTIF(W$56:W$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="W92:W102" si="51">IF(COUNTIF(W$56:W$88,$A92)=1,$B92,"")</f>
         <v/>
       </c>
       <c r="AA92" s="1" t="str">
-        <f t="shared" ref="AA92:AA102" si="41">IF(COUNTIF(AA$56:AA$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="AA92:AA102" si="52">IF(COUNTIF(AA$56:AA$88,$A92)=1,$B92,"")</f>
         <v>tick</v>
       </c>
       <c r="AE92" s="1" t="str">
-        <f t="shared" ref="AE92:AE102" si="42">IF(COUNTIF(AE$56:AE$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="AE92:AE102" si="53">IF(COUNTIF(AE$56:AE$88,$A92)=1,$B92,"")</f>
         <v>tick</v>
       </c>
       <c r="AI92" s="1" t="str">
-        <f t="shared" ref="AI92:AI102" si="43">IF(COUNTIF(AI$56:AI$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="AI92:AI102" si="54">IF(COUNTIF(AI$56:AI$88,$A92)=1,$B92,"")</f>
         <v>tick</v>
       </c>
       <c r="AM92" s="1" t="str">
-        <f t="shared" ref="AM92:AM102" si="44">IF(COUNTIF(AM$56:AM$88,$A92)=1,$B92,"")</f>
+        <f t="shared" ref="AM92:AM102" si="55">IF(COUNTIF(AM$56:AM$88,$A92)=1,$B92,"")</f>
         <v>tick</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:45">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -10085,47 +10036,54 @@
         <v>99</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K93" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O93" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S93" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W93" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AA93" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AE93" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>Disp. on x</v>
       </c>
       <c r="AI93" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AM93" s="6" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>Disp. on x</v>
       </c>
-    </row>
-    <row r="94" spans="1:39">
+      <c r="AO93" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="7"/>
+      <c r="AS93" s="7"/>
+    </row>
+    <row r="94" spans="1:45">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -10133,47 +10091,47 @@
         <v>100</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K94" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O94" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S94" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W94" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AA94" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AE94" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>HP on y</v>
       </c>
       <c r="AI94" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AM94" s="6" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>HP on y</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:45">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -10181,47 +10139,47 @@
         <v>101</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>HP on x</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>HP on x</v>
       </c>
       <c r="K95" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>HP on x</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>HP on x</v>
       </c>
       <c r="S95" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>HP on x</v>
       </c>
       <c r="W95" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>HP on x</v>
       </c>
       <c r="AA95" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>HP on x</v>
       </c>
       <c r="AE95" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI95" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>HP on x</v>
       </c>
       <c r="AM95" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:39">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:45">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -10229,43 +10187,43 @@
         <v>102</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>Disp. on y</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>Disp. on y</v>
       </c>
       <c r="K96" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>Disp. on y</v>
       </c>
       <c r="O96" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>Disp. on y</v>
       </c>
       <c r="S96" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>Disp. on y</v>
       </c>
       <c r="W96" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>Disp. on y</v>
       </c>
       <c r="AA96" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>Disp. on y</v>
       </c>
       <c r="AE96" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI96" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>Disp. on y</v>
       </c>
       <c r="AM96" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
     </row>
@@ -10277,43 +10235,43 @@
         <v>103</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>zero Disp.</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K97" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>zero Disp.</v>
       </c>
       <c r="O97" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S97" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W97" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>zero Disp.</v>
       </c>
       <c r="AA97" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>zero Disp.</v>
       </c>
       <c r="AE97" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI97" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>zero Disp.</v>
       </c>
       <c r="AM97" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>zero Disp.</v>
       </c>
     </row>
@@ -10325,43 +10283,43 @@
         <v>104</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>zero HP</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>zero HP</v>
       </c>
       <c r="K98" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O98" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>zero HP</v>
       </c>
       <c r="S98" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W98" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AA98" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AE98" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>zero HP</v>
       </c>
       <c r="AI98" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>zero HP</v>
       </c>
       <c r="AM98" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
     </row>
@@ -10373,43 +10331,43 @@
         <v>105</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G99" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K99" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O99" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>log Disp.</v>
       </c>
       <c r="S99" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W99" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AA99" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AE99" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI99" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AM99" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
     </row>
@@ -10421,43 +10379,43 @@
         <v>106</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G100" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K100" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O100" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S100" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W100" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>log HP</v>
       </c>
       <c r="AA100" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AE100" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI100" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AM100" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
     </row>
@@ -10469,43 +10427,43 @@
         <v>107</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G101" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K101" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O101" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S101" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W101" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AA101" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AE101" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>bin Disp.</v>
       </c>
       <c r="AI101" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AM101" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
     </row>
@@ -10517,43 +10475,43 @@
         <v>123</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G102" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K102" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O102" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S102" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W102" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AA102" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>bin HP</v>
       </c>
       <c r="AE102" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI102" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>bin HP</v>
       </c>
       <c r="AM102" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>bin HP</v>
       </c>
     </row>
